--- a/output/fit_clients/fit_round_88.xlsx
+++ b/output/fit_clients/fit_round_88.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6511429327.914624</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004895490927999434</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>18</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.791436237137581</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9453436795424673</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.791436237137581</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4844800037.064253</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005627122993966333</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.325873436012123</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.898637422627059</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.325873436012123</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5020937525.84095</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003144193316064713</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.420407821268595</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.564626317303964</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.6548678115835247</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.564626317303964</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3171478314.93907</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004189868653219091</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>21</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.420035046936748</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8342514913214553</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.420035046936748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>6570298348.458444</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002604100342026051</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.248215200706347</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8694592364908267</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.248215200706347</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7794652148.311351</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009919505203827266</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.437801643526915</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9179036474582555</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.437801643526915</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5633721076.321251</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003360796039349205</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.15822924001353</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9608489390323101</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.15822924001353</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6324347879.139048</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005082507466669136</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.740707080628167</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8985185964990663</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.740707080628167</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3917060766.279358</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005748315831733101</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>18</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.439721188559455</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9399197620883109</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.439721188559455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3749417549.457823</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0009350840142861998</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7648694045838071</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.244407423728322</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.805538808554816</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.244407423728322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8764158648.147438</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001876370425846309</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5788879525857763</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.627344362264495</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.8423158579419575</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.627344362264495</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6308086333.441677</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.002995682310605077</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>21</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6415872805654871</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.26763376242287</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9404189071481736</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.26763376242287</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6587435723.473477</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002293131197546319</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>16</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.9046490627605328</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.598323994853993</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.008894112813782</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.598323994853993</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>8077078141.645288</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004182973173703167</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.133261436761871</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9926024377584431</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.133261436761871</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5226468691.099823</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004753463470235321</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.8909493995102852</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.843835273833183</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.030765965270285</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.843835273833183</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6786532660.144359</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002254373077893833</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.9387149972862316</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.694062493825402</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.086608322621385</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.694062493825402</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5255111835.250455</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001336111257723315</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.559643585881795</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9135632648504476</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.559643585881795</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3414852102.329948</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002316389959361914</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>18</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.47492627395805</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9066951414029308</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.47492627395805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4870528488.248977</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001370120055750244</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.62414821147355</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.812315907408625</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.62414821147355</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6274334582.211725</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.006005650832428842</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
         <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.9404513248999488</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.700907849551831</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.016289280946435</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.700907849551831</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4569891768.080346</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004707135529662994</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>20</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.455329869609382</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7960624921896201</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.455329869609382</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>5949203126.84618</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001933981150751478</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>23</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.140490574032288</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8594716767177167</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.140490574032288</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>8378971461.689254</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004740204957469299</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>16</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.714418087708575</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9825906619516271</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.714418087708575</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6046595648.451275</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003098183838043926</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>13</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.932998699285682</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.937504272663257</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-2.932998699285682</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4264987667.92797</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001268287414590109</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>21</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.130920167131521</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8131474685425401</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.130920167131521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6048433584.372149</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003546115138960451</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>17</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.559130636858961</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9328834673417665</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.559130636858961</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6176718143.544325</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.00529398867351965</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2101110636836699</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.713762704840939</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9097008031939432</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.713762704840939</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6658900626.608088</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001368189113650677</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>15</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.792185304119877</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.976909369433693</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.792185304119877</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8757498086.621752</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002673962609138183</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>21</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.169424936663008</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8655334885855908</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.169424936663008</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6238988655.904685</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002643756466988641</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>19</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.48115345814124</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.958708967267718</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.48115345814124</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4280878256.176095</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001388771296424246</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>20</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.638619303427871</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9099451873158582</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.638619303427871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5563332329.596349</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002957999736793706</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.076556599831097</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8572339795335836</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.076556599831097</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6747613656.060505</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.00419358463615235</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>17</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.68217802565859</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7479411472318981</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.68217802565859</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6610969876.821722</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.0022339457030392</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>16</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.601378715002403</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9268975513897939</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.601378715002403</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>8165634675.488993</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003413506837592916</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>16</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.604063187764807</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.011309687168231</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.604063187764807</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6235058649.997169</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005461331041095011</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>20</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.524883197374126</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9998944279955747</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.524883197374126</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3451881444.888508</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.00466321921969964</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.453257697552889</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9039352269651438</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.453257697552889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5962613177.831266</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003049971932063777</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
         <v>13</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.067157511423192</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.871950862798832</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.067157511423192</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5937544706.307757</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003467186270044115</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>18</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.65912787368749</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.973060810813981</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.65912787368749</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>4854100157.239756</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.0009585454982956497</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.003462166565148</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9370204275689008</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.003462166565148</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5440487358.570359</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003416178273300414</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.366601705226844</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9688482496823569</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.366601705226844</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5676835579.005224</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003647885923698403</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>17</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.654725336516853</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9140595267621611</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.654725336516853</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6693799691.133583</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001873092823926004</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.370785908850025</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9187654334386161</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.370785908850025</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4504251525.131327</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001326184212969149</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>16</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.89026839425857</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9540789470510904</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.89026839425857</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9574940220.180971</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004186420473939635</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>20</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.376656433095952</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8050038571787039</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.376656433095952</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7048145381.270549</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003127785563532945</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>18</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.926623703569471</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.385975065768865</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.02738635742053</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.385975065768865</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7978789584.029405</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003638686488381904</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.030499624565555</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9478704068884598</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.030499624565555</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4543315793.574645</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004039184942817384</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>21</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.431397479508417</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8607948705898214</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.431397479508417</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7506755035.553333</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003832337204467756</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.32252802565993</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.0146802559534</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.32252802565993</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3732271487.680257</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005457106274147121</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>20</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.419303561634429</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9441389867477707</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.419303561634429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5498317559.432062</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002154228916128151</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>17</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.8313664626977657</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.467706262504397</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9186503451741721</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.467706262504397</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4918176185.111205</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002198694217299191</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>18</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.483868369915264</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.100679563497612</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.483868369915264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5729933774.459592</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.00405778610351081</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>21</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.9820379077950055</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.21929952350271</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.009718216759411</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.21929952350271</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8707937399.815031</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002826742247644696</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.34261997299575</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8929298427418915</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.34261997299575</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5481171242.066242</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002298141117170559</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>18</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.9671514477190125</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.504527148150491</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.065406099282206</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.504527148150491</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5867295258.775062</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003018134172878487</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>18</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.9162793732488969</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.42630936514605</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.9445325709487261</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.42630936514605</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5978208495.905485</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002289100098409728</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
         <v>19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.259751274910673</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.82700427950792</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.259751274910673</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7166448916.566843</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003376694488693279</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>18</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.431144870748859</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8815349232911905</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.431144870748859</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3894311935.576929</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.00352457033008525</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.229607719185571</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8138469934048004</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.229607719185571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4976908118.22731</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004472547800339973</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>25</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.794489216554887</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9157895226489671</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.794489216554887</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4796479015.694629</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.00265207046955887</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>18</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.050092721405131</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8639602312154028</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.050092721405131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7295337823.765901</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005507369004175186</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>25</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.084839163236708</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.5330017908890261</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.084839163236708</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4905962861.160974</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004530821528011194</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>15</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.646416951350356</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8903868856608202</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.646416951350356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6414510104.055646</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004499724604010935</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>23</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.4438716802511798</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.655778440299465</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.6869742269635352</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.655778440299465</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5613758378.959663</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003113078428708671</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>16</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.643755278496978</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9068225972813623</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.643755278496978</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>7369798691.306901</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004983223237039459</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>15</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.7802862091822188</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.775037690851766</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9106220246838002</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.775037690851766</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7249721339.006024</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.001932660423620947</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>20</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.0500639106867665</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.218289834155564</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7219659585582695</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.218289834155564</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5642919411.968802</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008900946144101973</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.055349325292219</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9796996417144188</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.055349325292219</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5990492430.550493</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002541848713068861</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>14</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.591525655230392</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8875762622229258</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.591525655230392</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3782125616.716702</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003940962843636234</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.64006413148054</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7944971341837638</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.64006413148054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6526444763.418162</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001978956370389419</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.531986710724041</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.046533733784044</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.531986710724041</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5778843391.967474</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.0009180638851628964</v>
       </c>
       <c r="G73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.854040113157433</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9601361450680778</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.854040113157433</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5966764884.208223</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.00394209533553965</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>18</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.404971938764602</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8615898535887446</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.404971938764602</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>8107536718.501579</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003590094329078474</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
         <v>17</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.618187671838182</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8705118709617973</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.618187671838182</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6536248114.626432</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.001919376423534725</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>19</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.497086525250718</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9206216871833532</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.497086525250718</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>8087827241.475762</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.00382364180333864</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.146552810706893</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9906566194326576</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.146552810706893</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7927151034.217386</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004919257183072287</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>17</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9707738759992767</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.571740195008712</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.0919632384447</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.571740195008712</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6940912311.571449</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002424616724882326</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>15</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.610113913643433</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9417343194313472</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.610113913643433</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5002175081.952981</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002885131915983961</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.596502330215115</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9543119667036059</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.596502330215115</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5930237644.09134</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003882905649614276</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>10</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.3569708996354783</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.175816735087482</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.6425814676866703</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.175816735087482</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7741057783.304231</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005700792104694778</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.430642945527707</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8825631876205347</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.430642945527707</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8241008972.270745</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003263375987492411</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
         <v>23</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.135303403532745</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8230057614376082</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.135303403532745</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6855425805.511095</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004346854746822831</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>19</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.381114604511587</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9522879123329463</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.381114604511587</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5702801273.110619</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003546203908383434</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.191229365618352</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.896229807881143</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.191229365618352</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8498697915.159896</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001928609758515982</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>19</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.671487991139577</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9787644427589119</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.671487991139577</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4062046593.409365</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001021705425373868</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>25</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.107708700257816</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9551409034578002</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.107708700257816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6857979754.064394</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004181066902479346</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.540851320773122</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8473647310428509</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.540851320773122</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7334336598.846812</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004598112359787765</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>14</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.880358673006214</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9552711046398825</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.880358673006214</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7011760812.961438</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002479014913291778</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
         <v>16</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.536903769002078</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9411298557148906</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.536903769002078</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5816008363.602641</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004391033995460522</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>13</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.739935075226134</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8111986034678462</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.739935075226134</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3587923974.802588</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002959023328613752</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.946265560782009</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.051627622415648</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.946265560782009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7785385515.840334</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001607949837398059</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>18</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.3020580259151293</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.486097575153495</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.481318728981168</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.486097575153495</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5817067894.153412</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001444188155715644</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>15</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.73970830335959</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.998648622835711</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.73970830335959</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5708960668.524657</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002181256792634762</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.708839053126983</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9203801379455867</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.708839053126983</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6479646789.410151</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002774926735681604</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>23</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.256028557955258</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.910316472444234</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.256028557955258</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6916481078.299005</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005596358754753764</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>16</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.74858334535124</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8897475389569125</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.74858334535124</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6999610911.987121</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004094611426351475</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.351771211161823</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8539083559039133</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.351771211161823</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2628279781.550616</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005487047723738905</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>22</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.299259975249856</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8801116016345804</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.299259975249856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5671763086.34944</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.00234877651976087</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.618766653759268</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8272837272165362</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.618766653759268</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5443690075.888807</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001430618846311648</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>20</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.7278968414737049</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.636221922416819</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8755838990061581</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.636221922416819</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_88.xlsx
+++ b/output/fit_clients/fit_round_88.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -483,19 +493,25 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6511429327.914624</v>
+        <v>1803284969.452067</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004895490927999434</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>22</v>
+        <v>0.06946100511756717</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02765350675843503</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>901642453.8186516</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2001468158.821917</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1456163353662616</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04998493991199786</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4844800037.064253</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.005627122993966333</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
+      <c r="J3" t="n">
+        <v>1000734119.619972</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5020937525.84095</v>
+        <v>4511576444.829389</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003144193316064713</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19</v>
+        <v>0.1625013747232957</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03110307155319691</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2255788272.753274</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3171478314.93907</v>
+        <v>3776155500.380702</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004189868653219091</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09745581183268105</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03559960675308294</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>35</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1888077768.629272</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +629,25 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>6570298348.458444</v>
+        <v>2414044589.299808</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002604100342026051</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20</v>
+        <v>0.1144056653555658</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05638943838904172</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1207022279.343073</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7794652148.311351</v>
+        <v>1904525887.580301</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009919505203827266</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29</v>
+        <v>0.09116237118869347</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03805916798306632</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>26</v>
+      </c>
+      <c r="J7" t="n">
+        <v>952263014.0800421</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5633721076.321251</v>
+        <v>2466506406.430395</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003360796039349205</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>23</v>
+        <v>0.1806953660737662</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02274894875734411</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>28</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1233253206.1157</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6324347879.139048</v>
+        <v>2012784867.079722</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005082507466669136</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>27</v>
+        <v>0.1478106735880837</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0291941188944809</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1006392458.29888</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3917060766.279358</v>
+        <v>3998150769.949961</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005748315831733101</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1811051905267419</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03971372178134085</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>37</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1999075406.646204</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3749417549.457823</v>
+        <v>2610505617.688025</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0009350840142861998</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1685750913720837</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.048726617808947</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1305252724.489961</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8764158648.147438</v>
+        <v>2424422639.034869</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001876370425846309</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>25</v>
+        <v>0.1590143696502903</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04492013170154787</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>30</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1212211284.748973</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6308086333.441677</v>
+        <v>3311131763.511555</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002995682310605077</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>19</v>
+        <v>0.0829758133107765</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.01943731448095211</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>30</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1655565971.583494</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6587435723.473477</v>
+        <v>2921204106.639381</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002293131197546319</v>
-      </c>
-      <c r="G14" t="b">
+        <v>0.1394490488214272</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02788877703459026</v>
+      </c>
+      <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>20</v>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1460602093.39142</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>8077078141.645288</v>
+        <v>1279186599.29003</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004182973173703167</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>25</v>
+        <v>0.06860078594633119</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04065865529019352</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>639593335.0137647</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5226468691.099823</v>
+        <v>1779471070.450372</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004753463470235321</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>28</v>
+        <v>0.1109593970076452</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03645195931871101</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14</v>
+      </c>
+      <c r="J16" t="n">
+        <v>889735630.3259935</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6786532660.144359</v>
+        <v>4268764248.896214</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002254373077893833</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>18</v>
+        <v>0.1274064447298288</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03780028107275366</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2134382145.696573</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5255111835.250455</v>
+        <v>3359764799.276881</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001336111257723315</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>25</v>
+        <v>0.1719223426033099</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0323679794888415</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>29</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1679882403.739206</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3414852102.329948</v>
+        <v>952691923.3001732</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002316389959361914</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1239050380090434</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01941328993457427</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>476345979.3028495</v>
       </c>
     </row>
     <row r="20">
@@ -987,19 +1105,25 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4870528488.248977</v>
+        <v>1890290657.436543</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001370120055750244</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.1487602281325694</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02574235935201294</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>945145366.6834347</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6274334582.211725</v>
+        <v>2705205807.687427</v>
       </c>
       <c r="F21" t="n">
-        <v>0.006005650832428842</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>17</v>
+        <v>0.06552556817660482</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03400506388426464</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1352602872.307264</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4569891768.080346</v>
+        <v>3060666200.064903</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004707135529662994</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
+        <v>0.109937857305863</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04999324738335671</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1530333157.853819</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>5949203126.84618</v>
+        <v>1263246642.641706</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001933981150751478</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>16</v>
+        <v>0.1677807167661644</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04646621641359228</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>631623347.0823781</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>8378971461.689254</v>
+        <v>3783914183.318046</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004740204957469299</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>23</v>
+        <v>0.1080750929138831</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02775714892220249</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>26</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1891957074.091387</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6046595648.451275</v>
+        <v>912341934.4851584</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003098183838043926</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>19</v>
+        <v>0.08168683797594442</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02859818024552446</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>456171051.3109884</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4264987667.92797</v>
+        <v>950310990.6884425</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001268287414590109</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1048822793932993</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03348261159002615</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>475155455.2084745</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6048433584.372149</v>
+        <v>4312616285.47874</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003546115138960451</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>23</v>
+        <v>0.1363855848432398</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02274989189141395</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2156308137.305145</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6176718143.544325</v>
+        <v>2845623354.226535</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00529398867351965</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>22</v>
+        <v>0.09785946838825145</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04767603915916255</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1422811674.842074</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6658900626.608088</v>
+        <v>3708006509.033559</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001368189113650677</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>23</v>
+        <v>0.1404061193197028</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0322658379002731</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1854003291.517134</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8757498086.621752</v>
+        <v>2141254863.749579</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002673962609138183</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>28</v>
+        <v>0.113491205952134</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03004239448045213</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1070627485.346361</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6238988655.904685</v>
+        <v>1022841465.834774</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002643756466988641</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>17</v>
+        <v>0.07398584725400238</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03728901306780346</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>511420725.9894108</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4280878256.176095</v>
+        <v>1336358837.240627</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001388771296424246</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09257377761337145</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03474619300396469</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>668179453.0107113</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5563332329.596349</v>
+        <v>2303591447.914623</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002957999736793706</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>20</v>
+        <v>0.1803000680217171</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04727161393179349</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>24</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1151795778.81522</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6747613656.060505</v>
+        <v>1153558522.215369</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00419358463615235</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>27</v>
+        <v>0.1028670857919444</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0170888628844636</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>576779273.6742424</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6610969876.821722</v>
+        <v>1266177810.521724</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0022339457030392</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>23</v>
+        <v>0.09379130572412751</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02721882920514759</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>633088865.3918213</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>8165634675.488993</v>
+        <v>2210172453.210159</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003413506837592916</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>24</v>
+        <v>0.144460602958714</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02043056996380778</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>22</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1105086271.736476</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6235058649.997169</v>
+        <v>1928981977.144777</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005461331041095011</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>22</v>
+        <v>0.1066974663730963</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03263059772952676</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>23</v>
+      </c>
+      <c r="J37" t="n">
+        <v>964491006.0112255</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3451881444.888508</v>
+        <v>1561417727.868321</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00466321921969964</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.07930842914727516</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0377527722912258</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>780708904.4327922</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5962613177.831266</v>
+        <v>1762778903.976094</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003049971932063777</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1245565142029714</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0283620865830941</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>881389482.4549512</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5937544706.307757</v>
+        <v>1360189986.939252</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003467186270044115</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1177959311234478</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05964415600960614</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>680094994.5992557</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>4854100157.239756</v>
+        <v>2413542662.797629</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0009585454982956497</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>25</v>
+        <v>0.1045221558715681</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03617892960612189</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1206771365.037615</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5440487358.570359</v>
+        <v>3100639121.962728</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003416178273300414</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>20</v>
+        <v>0.1202553360570276</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03512746489784345</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>31</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1550319528.266279</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5676835579.005224</v>
+        <v>2329090557.476905</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003647885923698403</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>20</v>
+        <v>0.184493443420717</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0196536469140169</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>31</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1164545344.517202</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6693799691.133583</v>
+        <v>1601521398.460847</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001873092823926004</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>23</v>
+        <v>0.06525866336655844</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03589817252146889</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>800760725.9755419</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4504251525.131327</v>
+        <v>1995465899.451429</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001326184212969149</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.1499545249081365</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04294761356557293</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>997732940.049489</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9574940220.180971</v>
+        <v>4724753336.2651</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004186420473939635</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>14</v>
+        <v>0.1100290834016845</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05177199056449565</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>31</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2362376679.071457</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7048145381.270549</v>
+        <v>3754888234.790158</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003127785563532945</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1997097015170763</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0447342638185147</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>24</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1877444102.570671</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7978789584.029405</v>
+        <v>4027457373.082368</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003638686488381904</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>16</v>
+        <v>0.08585355337302095</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02479154470295863</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2013728719.228468</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4543315793.574645</v>
+        <v>1743048409.790238</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004039184942817384</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1681419955538689</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.04123579686027162</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>871524199.0332162</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7506755035.553333</v>
+        <v>4127920121.961765</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003832337204467756</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>24</v>
+        <v>0.1243589649197018</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04174437519548255</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>30</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2063960040.494705</v>
       </c>
     </row>
     <row r="51">
@@ -1855,19 +2159,25 @@
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3732271487.680257</v>
+        <v>1111286992.117415</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005457106274147121</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1329163576785585</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03832845987464218</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>555643561.8922571</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5498317559.432062</v>
+        <v>3815040197.838303</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002154228916128151</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>21</v>
+        <v>0.1279086908912272</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05111379879576689</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>36</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1907520166.207258</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>4918176185.111205</v>
+        <v>3435840881.554084</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002198694217299191</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>16</v>
+        <v>0.204003497018827</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02605484173408509</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>25</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1717920443.038611</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5729933774.459592</v>
+        <v>3412986954.185004</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00405778610351081</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>22</v>
+        <v>0.163295557959126</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04809544802221265</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>28</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1706493495.009658</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8707937399.815031</v>
+        <v>3353879103.478849</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002826742247644696</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>28</v>
+        <v>0.1695012743401874</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02465999539101553</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1676939498.065315</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5481171242.066242</v>
+        <v>1562170348.656515</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002298141117170559</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>13</v>
+        <v>0.1131632832702644</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03637014920281627</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>781085207.2648638</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5867295258.775062</v>
+        <v>3583416391.482826</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003018134172878487</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.1395544895216073</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01798371152308304</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>28</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1791708249.04815</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5978208495.905485</v>
+        <v>1227248746.627886</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002289100098409728</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>19</v>
+        <v>0.1937410062348943</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02752113849838772</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>613624429.2614778</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7166448916.566843</v>
+        <v>5270143339.503567</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003376694488693279</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.08050318559818011</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04282948151145837</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>25</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2635071584.355125</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3894311935.576929</v>
+        <v>3356188504.056592</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00352457033008525</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1801757917976867</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02259968655914324</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1678094359.647313</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>4976908118.22731</v>
+        <v>2575552044.294016</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004472547800339973</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>20</v>
+        <v>0.1224882559842362</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02711845702397048</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>31</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1287776042.56091</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4796479015.694629</v>
+        <v>1617587315.914613</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00265207046955887</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>15</v>
+        <v>0.1204754931040447</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03157993772736966</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>808793658.5405607</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7295337823.765901</v>
+        <v>3786355588.949791</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005507369004175186</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>23</v>
+        <v>0.08197265799809511</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.02976092684071692</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1893177866.322388</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4905962861.160974</v>
+        <v>4884405789.709644</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004530821528011194</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1859442802893315</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03553455793508738</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>27</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2442202992.850638</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6414510104.055646</v>
+        <v>4155187404.797261</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004499724604010935</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>22</v>
+        <v>0.1736786903237686</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0230308454733654</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>32</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2077593711.633135</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5613758378.959663</v>
+        <v>5109627650.720248</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003113078428708671</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>19</v>
+        <v>0.1042399592250219</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03287189875387021</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>26</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2554813858.302581</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>7369798691.306901</v>
+        <v>3417402462.649478</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004983223237039459</v>
-      </c>
-      <c r="G67" t="b">
+        <v>0.07932915093199336</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04432400837621352</v>
+      </c>
+      <c r="H67" t="b">
         <v>1</v>
       </c>
-      <c r="H67" t="n">
-        <v>16</v>
+      <c r="I67" t="n">
+        <v>28</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1708701214.211325</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7249721339.006024</v>
+        <v>4833349540.326804</v>
       </c>
       <c r="F68" t="n">
-        <v>0.001932660423620947</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>18</v>
+        <v>0.1350566700653466</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03862263761647991</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>28</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2416674816.382501</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5642919411.968802</v>
+        <v>1856412350.671414</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008900946144101973</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>21</v>
+        <v>0.1708470289622295</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04773844875550518</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>928206161.6279236</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5990492430.550493</v>
+        <v>3121866801.333731</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002541848713068861</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.0751489824807738</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03837692642093387</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1560933385.513751</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3782125616.716702</v>
+        <v>4811511530.372481</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003940962843636234</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1247677958071092</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03367958615884348</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>32</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2405755856.729974</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6526444763.418162</v>
+        <v>1473132065.953829</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001978956370389419</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>19</v>
+        <v>0.1024953662460352</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0364720848652052</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>736566064.2201034</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5778843391.967474</v>
+        <v>3031961044.264943</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009180638851628964</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>20</v>
+        <v>0.07948404929713719</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04618577551332284</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>33</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1515980515.114866</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5966764884.208223</v>
+        <v>3234101924.373609</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00394209533553965</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>19</v>
+        <v>0.1259880345783157</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02808708792155976</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>30</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1617051007.266246</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>8107536718.501579</v>
+        <v>2130194933.90028</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003590094329078474</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>17</v>
+        <v>0.1269132636221256</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02356997937565126</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1065097418.84616</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6536248114.626432</v>
+        <v>4658785617.651158</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001919376423534725</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>18</v>
+        <v>0.09648944590066602</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02136457450469376</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>19</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2329392821.09185</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>8087827241.475762</v>
+        <v>1559517355.993265</v>
       </c>
       <c r="F77" t="n">
-        <v>0.00382364180333864</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>29</v>
+        <v>0.1834219098730231</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0196910696137936</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>779758674.4140736</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7927151034.217386</v>
+        <v>3439671252.061107</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004919257183072287</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+        <v>0.09722144568129086</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05107134783333433</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>31</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1719835631.773602</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6940912311.571449</v>
+        <v>1624270817.364752</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002424616724882326</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>18</v>
+        <v>0.1638645556900811</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02834098735405893</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>812135464.5177449</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5002175081.952981</v>
+        <v>4837502591.67904</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002885131915983961</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
+        <v>0.09363031837701996</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0300174859036655</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>18</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2418751336.879551</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5930237644.09134</v>
+        <v>4547491013.945101</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003882905649614276</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>17</v>
+        <v>0.09494399160241219</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02672044718373925</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2273745490.402631</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7741057783.304231</v>
+        <v>4585549013.314088</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005700792104694778</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16</v>
+        <v>0.1934350354282789</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02135047996485005</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>32</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2292774513.67219</v>
       </c>
     </row>
     <row r="83">
@@ -2751,19 +3247,25 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8241008972.270745</v>
+        <v>2281141588.226482</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003263375987492411</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>23</v>
+        <v>0.1461452619561126</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04023158146789533</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1140570814.370398</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6855425805.511095</v>
+        <v>2592272895.970947</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004346854746822831</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>23</v>
+        <v>0.08602514979730799</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04203648995497006</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1296136366.211208</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5702801273.110619</v>
+        <v>2484594936.682835</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003546203908383434</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.1491855791150043</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04418896944285874</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>33</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1242297471.512295</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8498697915.159896</v>
+        <v>2010258674.761736</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001928609758515982</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>24</v>
+        <v>0.1090389761466239</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02486688214641769</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1005129366.363622</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4062046593.409365</v>
+        <v>1380470803.016844</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001021705425373868</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1673275507309476</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03946966965455763</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>690235503.2845896</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
+        <v>5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>555</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2773351416.167071</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.1785281711674795</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02803145447157639</v>
+      </c>
+      <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="D88" t="n">
-        <v>477</v>
-      </c>
-      <c r="E88" t="n">
-        <v>6857979754.064394</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.004181066902479346</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>22</v>
+      <c r="I88" t="n">
+        <v>34</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1386675716.058918</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7334336598.846812</v>
+        <v>2270815409.113389</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004598112359787765</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>19</v>
+        <v>0.1511862741314826</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03166653428075156</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>29</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1135407796.046126</v>
       </c>
     </row>
     <row r="90">
@@ -2947,19 +3485,25 @@
         <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7011760812.961438</v>
+        <v>2146792608.433754</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002479014913291778</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>16</v>
+        <v>0.1316844174231055</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03772892483331206</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1073396401.286578</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5816008363.602641</v>
+        <v>1483570313.29044</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004391033995460522</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>25</v>
+        <v>0.1292263389095172</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04300233863415903</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>741785197.656818</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3587923974.802588</v>
+        <v>2552567913.827203</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002959023328613752</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.07773412000250186</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04150193911340101</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1276283944.75268</v>
       </c>
     </row>
     <row r="93">
@@ -3031,19 +3587,25 @@
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7785385515.840334</v>
+        <v>4664834869.592306</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001607949837398059</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>30</v>
+        <v>0.08985298685136252</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03315084051744536</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>26</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2332417392.370474</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5817067894.153412</v>
+        <v>1852586763.368247</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001444188155715644</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>29</v>
+        <v>0.1672329536655009</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03517489306311249</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>926293360.8196985</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5708960668.524657</v>
+        <v>2814851164.392895</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002181256792634762</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>22</v>
+        <v>0.1376163061744</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.05221553067265281</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>21</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1407425595.320062</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6479646789.410151</v>
+        <v>1626541351.510225</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002774926735681604</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>23</v>
+        <v>0.1088626646820718</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03102107609553476</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>813270702.5269136</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6916481078.299005</v>
+        <v>5054184715.003416</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005596358754753764</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>22</v>
+        <v>0.1503396784198673</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.0188656605032643</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>28</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2527092498.56358</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6999610911.987121</v>
+        <v>2407174211.648876</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004094611426351475</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>33</v>
+        <v>0.1039614527949467</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02125380375111713</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>23</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1203587050.248284</v>
       </c>
     </row>
     <row r="99">
@@ -3199,19 +3791,25 @@
         <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2628279781.550616</v>
+        <v>3374287010.00886</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005487047723738905</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1408680191518203</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03428422175093153</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>28</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1687143517.993878</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5671763086.34944</v>
+        <v>4360805919.521338</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00234877651976087</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1169968725618061</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02350604718247647</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>27</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2180403059.140132</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5443690075.888807</v>
+        <v>3122514316.259375</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001430618846311648</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>28</v>
+        <v>0.1955089077080992</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05600129217673119</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>37</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1561257263.292398</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_88.xlsx
+++ b/output/fit_clients/fit_round_88.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1803284969.452067</v>
+        <v>1844899281.902167</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06946100511756717</v>
+        <v>0.09294010694642058</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02765350675843503</v>
+        <v>0.0397310931508088</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>901642453.8186516</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2001468158.821917</v>
+        <v>2511017639.88856</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1456163353662616</v>
+        <v>0.1660357951650187</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04998493991199786</v>
+        <v>0.03407059784210997</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1000734119.619972</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4511576444.829389</v>
+        <v>3522212052.366151</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1625013747232957</v>
+        <v>0.1034332575052674</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03110307155319691</v>
+        <v>0.03810445598470392</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2255788272.753274</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3776155500.380702</v>
+        <v>3910346607.715935</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09745581183268105</v>
+        <v>0.09006103742317645</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03559960675308294</v>
+        <v>0.0427507702424617</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>35</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1888077768.629272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2414044589.299808</v>
+        <v>2782754045.979291</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1144056653555658</v>
+        <v>0.09109954106825449</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05638943838904172</v>
+        <v>0.03937774378779922</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1207022279.343073</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1904525887.580301</v>
+        <v>2114739089.931962</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09116237118869347</v>
+        <v>0.06958963154252282</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03805916798306632</v>
+        <v>0.03964548885828865</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>26</v>
-      </c>
-      <c r="J7" t="n">
-        <v>952263014.0800421</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2466506406.430395</v>
+        <v>3408927182.203116</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1806953660737662</v>
+        <v>0.1881561020309074</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02274894875734411</v>
+        <v>0.02161565777808581</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>28</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1233253206.1157</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2012784867.079722</v>
+        <v>2112350778.373097</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1478106735880837</v>
+        <v>0.189584016584169</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0291941188944809</v>
+        <v>0.02714817700543898</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1006392458.29888</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3998150769.949961</v>
+        <v>5182895254.273329</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1811051905267419</v>
+        <v>0.2021028220014247</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03971372178134085</v>
+        <v>0.03749833929670073</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>37</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1999075406.646204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2610505617.688025</v>
+        <v>3296084886.484902</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1685750913720837</v>
+        <v>0.1590463411648121</v>
       </c>
       <c r="G11" t="n">
-        <v>0.048726617808947</v>
+        <v>0.0471010533401583</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>36</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1305252724.489961</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2424422639.034869</v>
+        <v>2084823994.321778</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1590143696502903</v>
+        <v>0.1843824128525365</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04492013170154787</v>
+        <v>0.05199148357647348</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>30</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1212211284.748973</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3311131763.511555</v>
+        <v>4808553433.337957</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0829758133107765</v>
+        <v>0.06851500511471313</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01943731448095211</v>
+        <v>0.03073329151068594</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>30</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1655565971.583494</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2921204106.639381</v>
+        <v>2670385762.47921</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1394490488214272</v>
+        <v>0.1330945859242049</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02788877703459026</v>
+        <v>0.0380866861867772</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>28</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1460602093.39142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1279186599.29003</v>
+        <v>1771687455.99788</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06860078594633119</v>
+        <v>0.09334506639498907</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04065865529019352</v>
+        <v>0.03607713093553628</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>639593335.0137647</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1779471070.450372</v>
+        <v>2892152477.259987</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1109593970076452</v>
+        <v>0.09926653853571452</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03645195931871101</v>
+        <v>0.03924164852101803</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>889735630.3259935</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4268764248.896214</v>
+        <v>3224684161.022299</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1274064447298288</v>
+        <v>0.170255690152292</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03780028107275366</v>
+        <v>0.05202720397775442</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>26</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2134382145.696573</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3359764799.276881</v>
+        <v>2568099055.809078</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1719223426033099</v>
+        <v>0.1277698584804884</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0323679794888415</v>
+        <v>0.02172887690314898</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>29</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1679882403.739206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>952691923.3001732</v>
+        <v>1306502969.604209</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1239050380090434</v>
+        <v>0.1721989826535229</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01941328993457427</v>
+        <v>0.02198133160750367</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>476345979.3028495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1890290657.436543</v>
+        <v>2564898053.586151</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1487602281325694</v>
+        <v>0.1032568864263948</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02574235935201294</v>
+        <v>0.02589746309972855</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>945145366.6834347</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2705205807.687427</v>
+        <v>2514535927.052709</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06552556817660482</v>
+        <v>0.09321044801236955</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03400506388426464</v>
+        <v>0.037114296110067</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1352602872.307264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3060666200.064903</v>
+        <v>2652184392.098664</v>
       </c>
       <c r="F22" t="n">
-        <v>0.109937857305863</v>
+        <v>0.1189996118828371</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04999324738335671</v>
+        <v>0.04914119607726147</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>25</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1530333157.853819</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1263246642.641706</v>
+        <v>1202735210.778531</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1677807167661644</v>
+        <v>0.1791053524179333</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04646621641359228</v>
+        <v>0.04154410323120507</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>631623347.0823781</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3783914183.318046</v>
+        <v>2894364917.013215</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1080750929138831</v>
+        <v>0.105933993302563</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02775714892220249</v>
+        <v>0.0344640582569907</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>26</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1891957074.091387</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>912341934.4851584</v>
+        <v>1457204118.488178</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08168683797594442</v>
+        <v>0.1201893125439847</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02859818024552446</v>
+        <v>0.02186950978569883</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>456171051.3109884</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>950310990.6884425</v>
+        <v>1053689397.431493</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1048822793932993</v>
+        <v>0.1140648939523797</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03348261159002615</v>
+        <v>0.0390443602545431</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>475155455.2084745</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4312616285.47874</v>
+        <v>2892564582.665932</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1363855848432398</v>
+        <v>0.1352846663979372</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02274989189141395</v>
+        <v>0.02200766527718796</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>20</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2156308137.305145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2845623354.226535</v>
+        <v>2639743786.043797</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09785946838825145</v>
+        <v>0.1224731388658532</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04767603915916255</v>
+        <v>0.04191929016104861</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>29</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1422811674.842074</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3708006509.033559</v>
+        <v>3711366476.947186</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1404061193197028</v>
+        <v>0.1392328610811664</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0322658379002731</v>
+        <v>0.03096320839161113</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>39</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1854003291.517134</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2141254863.749579</v>
+        <v>1850393262.55394</v>
       </c>
       <c r="F30" t="n">
-        <v>0.113491205952134</v>
+        <v>0.1081997371046329</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03004239448045213</v>
+        <v>0.0393604508614143</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1070627485.346361</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1022841465.834774</v>
+        <v>1049326865.882286</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07398584725400238</v>
+        <v>0.09448538893495008</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03728901306780346</v>
+        <v>0.03255613891632022</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>511420725.9894108</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1336358837.240627</v>
+        <v>1476914732.234424</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09257377761337145</v>
+        <v>0.09114659958233823</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03474619300396469</v>
+        <v>0.03864129266430483</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>668179453.0107113</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2303591447.914623</v>
+        <v>2089347769.752944</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1803000680217171</v>
+        <v>0.1498531932728333</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04727161393179349</v>
+        <v>0.03749012950218629</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>24</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1151795778.81522</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1153558522.215369</v>
+        <v>977760283.4010259</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1028670857919444</v>
+        <v>0.09269505521723137</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0170888628844636</v>
+        <v>0.02379199333615306</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>576779273.6742424</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1266177810.521724</v>
+        <v>926969645.226861</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09379130572412751</v>
+        <v>0.09385661059499466</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02721882920514759</v>
+        <v>0.03288220132436682</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>633088865.3918213</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2210172453.210159</v>
+        <v>2359155735.618081</v>
       </c>
       <c r="F36" t="n">
-        <v>0.144460602958714</v>
+        <v>0.1103115820768874</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02043056996380778</v>
+        <v>0.02398453473187206</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>22</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1105086271.736476</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1928981977.144777</v>
+        <v>1834067922.942668</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1066974663730963</v>
+        <v>0.09977239363183965</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03263059772952676</v>
+        <v>0.03278537675436057</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>23</v>
-      </c>
-      <c r="J37" t="n">
-        <v>964491006.0112255</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1561417727.868321</v>
+        <v>1481012980.577627</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07930842914727516</v>
+        <v>0.08482280156995832</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0377527722912258</v>
+        <v>0.036956019988508</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>780708904.4327922</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1762778903.976094</v>
+        <v>1455839456.224315</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1245565142029714</v>
+        <v>0.192523558399946</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0283620865830941</v>
+        <v>0.03136451462252265</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>881389482.4549512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1360189986.939252</v>
+        <v>1147025571.246284</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1177959311234478</v>
+        <v>0.109988514304746</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05964415600960614</v>
+        <v>0.03663198299447284</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>680094994.5992557</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2413542662.797629</v>
+        <v>1836367246.653737</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1045221558715681</v>
+        <v>0.1295013164867292</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03617892960612189</v>
+        <v>0.03851484416539769</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1206771365.037615</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3100639121.962728</v>
+        <v>2849227365.269285</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1202553360570276</v>
+        <v>0.1175478868884677</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03512746489784345</v>
+        <v>0.02971804491660754</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>31</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1550319528.266279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2329090557.476905</v>
+        <v>2850516079.357111</v>
       </c>
       <c r="F43" t="n">
-        <v>0.184493443420717</v>
+        <v>0.2004251439003163</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0196536469140169</v>
+        <v>0.0219402318050656</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>31</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1164545344.517202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1601521398.460847</v>
+        <v>1925033938.063107</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06525866336655844</v>
+        <v>0.06582112033962453</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03589817252146889</v>
+        <v>0.0358665109454901</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>800760725.9755419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1995465899.451429</v>
+        <v>2499817608.539811</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1499545249081365</v>
+        <v>0.1490044316257094</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04294761356557293</v>
+        <v>0.05265878533390213</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>997732940.049489</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4724753336.2651</v>
+        <v>4475721201.724883</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1100290834016845</v>
+        <v>0.1510580949517275</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05177199056449565</v>
+        <v>0.05713745317826903</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>31</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2362376679.071457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3754888234.790158</v>
+        <v>4753162437.574621</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1997097015170763</v>
+        <v>0.1666933127688892</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0447342638185147</v>
+        <v>0.05720076992296391</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>24</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1877444102.570671</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4027457373.082368</v>
+        <v>4635949369.206924</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08585355337302095</v>
+        <v>0.08598240028198151</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02479154470295863</v>
+        <v>0.02568030729005534</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>31</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2013728719.228468</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1743048409.790238</v>
+        <v>1491051383.641471</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1681419955538689</v>
+        <v>0.1846527090624046</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04123579686027162</v>
+        <v>0.04416155038039743</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>871524199.0332162</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4127920121.961765</v>
+        <v>3228071435.272128</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1243589649197018</v>
+        <v>0.1552811666051755</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04174437519548255</v>
+        <v>0.03519312074271211</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>30</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2063960040.494705</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1111286992.117415</v>
+        <v>1298312328.979708</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1329163576785585</v>
+        <v>0.1448216479342384</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03832845987464218</v>
+        <v>0.04692466251278359</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>555643561.8922571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3815040197.838303</v>
+        <v>4014936698.063434</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1279086908912272</v>
+        <v>0.1038095038275928</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05111379879576689</v>
+        <v>0.04810153422789878</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>36</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1907520166.207258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3435840881.554084</v>
+        <v>2843712471.443052</v>
       </c>
       <c r="F53" t="n">
-        <v>0.204003497018827</v>
+        <v>0.1817693060259061</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02605484173408509</v>
+        <v>0.02436665184141266</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>25</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1717920443.038611</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3412986954.185004</v>
+        <v>4717021539.970815</v>
       </c>
       <c r="F54" t="n">
-        <v>0.163295557959126</v>
+        <v>0.1679090492529021</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04809544802221265</v>
+        <v>0.04745257132287859</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>28</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1706493495.009658</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3353879103.478849</v>
+        <v>4325171280.326568</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1695012743401874</v>
+        <v>0.1522640306088892</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02465999539101553</v>
+        <v>0.02246717505506205</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>22</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1676939498.065315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1562170348.656515</v>
+        <v>1701122299.071999</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1131632832702644</v>
+        <v>0.1142105366597391</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03637014920281627</v>
+        <v>0.05725363086739116</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>781085207.2648638</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3583416391.482826</v>
+        <v>4568957669.614586</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1395544895216073</v>
+        <v>0.1692709237160255</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01798371152308304</v>
+        <v>0.01777368184948695</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>28</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1791708249.04815</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1227248746.627886</v>
+        <v>1408928883.332613</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1937410062348943</v>
+        <v>0.1441279912551498</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02752113849838772</v>
+        <v>0.03524125435572686</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>613624429.2614778</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5270143339.503567</v>
+        <v>4530759256.152872</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08050318559818011</v>
+        <v>0.105343132882416</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04282948151145837</v>
+        <v>0.03711582278096413</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>25</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2635071584.355125</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3356188504.056592</v>
+        <v>3283000778.969289</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1801757917976867</v>
+        <v>0.1793338428966109</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02259968655914324</v>
+        <v>0.02512506416895176</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>29</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1678094359.647313</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2575552044.294016</v>
+        <v>2513408702.859296</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1224882559842362</v>
+        <v>0.1794891778825476</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02711845702397048</v>
+        <v>0.02381505795037112</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>31</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1287776042.56091</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1617587315.914613</v>
+        <v>1552260933.786468</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1204754931040447</v>
+        <v>0.1797544186504777</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03157993772736966</v>
+        <v>0.04102667904484976</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>808793658.5405607</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3786355588.949791</v>
+        <v>4897927464.809731</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08197265799809511</v>
+        <v>0.08698668763447268</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02976092684071692</v>
+        <v>0.02972602853982402</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>26</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1893177866.322388</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4884405789.709644</v>
+        <v>4925678956.5371</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1859442802893315</v>
+        <v>0.1428400201210616</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03553455793508738</v>
+        <v>0.03081909717099405</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>27</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2442202992.850638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4155187404.797261</v>
+        <v>4134620780.132575</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1736786903237686</v>
+        <v>0.1736567567511429</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0230308454733654</v>
+        <v>0.02062859972507185</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>32</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2077593711.633135</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5109627650.720248</v>
+        <v>4409655764.631055</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1042399592250219</v>
+        <v>0.1555512272017077</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03287189875387021</v>
+        <v>0.04899840893221742</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>26</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2554813858.302581</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3417402462.649478</v>
+        <v>2721738803.385958</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07932915093199336</v>
+        <v>0.06861522460577109</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04432400837621352</v>
+        <v>0.03181876873566573</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>28</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1708701214.211325</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4833349540.326804</v>
+        <v>4329613050.368094</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1350566700653466</v>
+        <v>0.1302575937286593</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03862263761647991</v>
+        <v>0.03691526628474052</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>28</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2416674816.382501</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1856412350.671414</v>
+        <v>1822520928.673836</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1708470289622295</v>
+        <v>0.132016830986726</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04773844875550518</v>
+        <v>0.06004433699586576</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>928206161.6279236</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3121866801.333731</v>
+        <v>2469443171.927549</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0751489824807738</v>
+        <v>0.06355844220572972</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03837692642093387</v>
+        <v>0.04156326290527927</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>26</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1560933385.513751</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4811511530.372481</v>
+        <v>4115242951.945259</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1247677958071092</v>
+        <v>0.1642034180789202</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03367958615884348</v>
+        <v>0.03257761486641852</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>32</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2405755856.729974</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1473132065.953829</v>
+        <v>1824582278.273092</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1024953662460352</v>
+        <v>0.09145297302481176</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0364720848652052</v>
+        <v>0.03280571063223549</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>736566064.2201034</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3031961044.264943</v>
+        <v>2734630413.786466</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07948404929713719</v>
+        <v>0.09171384718058631</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04618577551332284</v>
+        <v>0.04873795338044019</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>33</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1515980515.114866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3234101924.373609</v>
+        <v>3611927527.647758</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1259880345783157</v>
+        <v>0.1524219267892647</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02808708792155976</v>
+        <v>0.0312036964128562</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>30</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1617051007.266246</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2130194933.90028</v>
+        <v>1842633424.419645</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1269132636221256</v>
+        <v>0.1475218606014606</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02356997937565126</v>
+        <v>0.0268612167835608</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1065097418.84616</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4658785617.651158</v>
+        <v>3994889189.254143</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09648944590066602</v>
+        <v>0.07979470009256036</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02136457450469376</v>
+        <v>0.03056076127118722</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>19</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2329392821.09185</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1559517355.993265</v>
+        <v>1707741355.065085</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1834219098730231</v>
+        <v>0.118715768945435</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0196910696137936</v>
+        <v>0.0294527923222799</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>779758674.4140736</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3439671252.061107</v>
+        <v>4477888856.6285</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09722144568129086</v>
+        <v>0.1350288004555903</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05107134783333433</v>
+        <v>0.04467013360713047</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>31</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1719835631.773602</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1624270817.364752</v>
+        <v>1604342460.240524</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1638645556900811</v>
+        <v>0.1333657461652197</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02834098735405893</v>
+        <v>0.03356743367246519</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>812135464.5177449</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4837502591.67904</v>
+        <v>5150062369.466456</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09363031837701996</v>
+        <v>0.07309800790577703</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0300174859036655</v>
+        <v>0.03651713156342131</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>18</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2418751336.879551</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4547491013.945101</v>
+        <v>3240539361.540455</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09494399160241219</v>
+        <v>0.08525229659262255</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02672044718373925</v>
+        <v>0.03244096826045713</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>20</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2273745490.402631</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4585549013.314088</v>
+        <v>5120528805.60313</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1934350354282789</v>
+        <v>0.1654585158605376</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02135047996485005</v>
+        <v>0.02347767976239437</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>32</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2292774513.67219</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2281141588.226482</v>
+        <v>2047817505.332703</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1461452619561126</v>
+        <v>0.1244312486854611</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04023158146789533</v>
+        <v>0.02736544518869976</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1140570814.370398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2592272895.970947</v>
+        <v>1813563756.817362</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08602514979730799</v>
+        <v>0.09636044458449654</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04203648995497006</v>
+        <v>0.03384627203434922</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1296136366.211208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2484594936.682835</v>
+        <v>2917800808.416821</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1491855791150043</v>
+        <v>0.1739973253150406</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04418896944285874</v>
+        <v>0.03601429385058132</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>33</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1242297471.512295</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2010258674.761736</v>
+        <v>2501115902.276646</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1090389761466239</v>
+        <v>0.1292328368810478</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02486688214641769</v>
+        <v>0.01864178362702381</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1005129366.363622</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1380470803.016844</v>
+        <v>1498619464.513812</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1673275507309476</v>
+        <v>0.1503607432560029</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03946966965455763</v>
+        <v>0.02889464663977199</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>690235503.2845896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2773351416.167071</v>
+        <v>3682325645.020723</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1785281711674795</v>
+        <v>0.1255774876886481</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02803145447157639</v>
+        <v>0.02434710047694346</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>34</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1386675716.058918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2270815409.113389</v>
+        <v>3430998607.137894</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1511862741314826</v>
+        <v>0.1407369792901641</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03166653428075156</v>
+        <v>0.03320673399559078</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>29</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1135407796.046126</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2146792608.433754</v>
+        <v>2016531557.799697</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1316844174231055</v>
+        <v>0.1267547503512934</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03772892483331206</v>
+        <v>0.03760264853328491</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1073396401.286578</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1483570313.29044</v>
+        <v>2038214744.080879</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1292263389095172</v>
+        <v>0.1421215860523243</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04300233863415903</v>
+        <v>0.03966755008334704</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>741785197.656818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2552567913.827203</v>
+        <v>2262184636.954164</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07773412000250186</v>
+        <v>0.1003957031310423</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04150193911340101</v>
+        <v>0.03386357501142736</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1276283944.75268</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4664834869.592306</v>
+        <v>3303266531.162062</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08985298685136252</v>
+        <v>0.112869212195659</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03315084051744536</v>
+        <v>0.03531485516825372</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>26</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2332417392.370474</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1852586763.368247</v>
+        <v>2478026116.936687</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1672329536655009</v>
+        <v>0.1441256893778713</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03517489306311249</v>
+        <v>0.02628696407295996</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>926293360.8196985</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2814851164.392895</v>
+        <v>2579061632.873919</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1376163061744</v>
+        <v>0.1368251727609023</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05221553067265281</v>
+        <v>0.03870983106527199</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>21</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1407425595.320062</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1626541351.510225</v>
+        <v>1790953108.513737</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1088626646820718</v>
+        <v>0.1283310828326716</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03102107609553476</v>
+        <v>0.02912786604569171</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>813270702.5269136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5054184715.003416</v>
+        <v>3467399765.850166</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1503396784198673</v>
+        <v>0.1236805843992552</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0188656605032643</v>
+        <v>0.0215260743430079</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>28</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2527092498.56358</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2407174211.648876</v>
+        <v>2967759024.123869</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1039614527949467</v>
+        <v>0.12378503585623</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02125380375111713</v>
+        <v>0.02035208816061952</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>23</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1203587050.248284</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3374287010.00886</v>
+        <v>2990217002.754505</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1408680191518203</v>
+        <v>0.147244925658086</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03428422175093153</v>
+        <v>0.02266582000494642</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>28</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1687143517.993878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4360805919.521338</v>
+        <v>4473537186.445847</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1169968725618061</v>
+        <v>0.1760774428592384</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02350604718247647</v>
+        <v>0.02800839455738206</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>27</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2180403059.140132</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3122514316.259375</v>
+        <v>3003295775.99659</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1955089077080992</v>
+        <v>0.1805211819608732</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05600129217673119</v>
+        <v>0.05765280635381272</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>37</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1561257263.292398</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_88.xlsx
+++ b/output/fit_clients/fit_round_88.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1844899281.902167</v>
+        <v>1733553556.445923</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09294010694642058</v>
+        <v>0.1034372445648602</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0397310931508088</v>
+        <v>0.02790084419495007</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2511017639.88856</v>
+        <v>2181216645.916838</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1660357951650187</v>
+        <v>0.1443751574292164</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03407059784210997</v>
+        <v>0.0312091228682164</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3522212052.366151</v>
+        <v>5111973406.327254</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1034332575052674</v>
+        <v>0.1462596231923552</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03810445598470392</v>
+        <v>0.03562113599473546</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3910346607.715935</v>
+        <v>2781402253.694087</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09006103742317645</v>
+        <v>0.09138807004413062</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0427507702424617</v>
+        <v>0.03290863636784781</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2782754045.979291</v>
+        <v>2181165136.126223</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09109954106825449</v>
+        <v>0.09820787338612814</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03937774378779922</v>
+        <v>0.03419172425470527</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2114739089.931962</v>
+        <v>2445739476.951799</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06958963154252282</v>
+        <v>0.06323854210512922</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03964548885828865</v>
+        <v>0.04463879276816705</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3408927182.203116</v>
+        <v>2966097669.528996</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1881561020309074</v>
+        <v>0.1929114698440957</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02161565777808581</v>
+        <v>0.02136287101743481</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2112350778.373097</v>
+        <v>1892838824.654786</v>
       </c>
       <c r="F9" t="n">
-        <v>0.189584016584169</v>
+        <v>0.1836453839245592</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02714817700543898</v>
+        <v>0.02779540513107889</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5182895254.273329</v>
+        <v>3597940043.664702</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2021028220014247</v>
+        <v>0.2017056370560298</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03749833929670073</v>
+        <v>0.0512777136441564</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3296084886.484902</v>
+        <v>4136374779.141848</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1590463411648121</v>
+        <v>0.1197731913335449</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0471010533401583</v>
+        <v>0.04569673175027318</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2084823994.321778</v>
+        <v>2495523987.335832</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1843824128525365</v>
+        <v>0.1330801381902789</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05199148357647348</v>
+        <v>0.05081959046022586</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4808553433.337957</v>
+        <v>5263565852.329364</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06851500511471313</v>
+        <v>0.07732950537434988</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03073329151068594</v>
+        <v>0.02637711812486819</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2670385762.47921</v>
+        <v>3067611690.365489</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1330945859242049</v>
+        <v>0.1890474101937105</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0380866861867772</v>
+        <v>0.04119982132261438</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1771687455.99788</v>
+        <v>1761273898.163755</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09334506639498907</v>
+        <v>0.08651254209902155</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03607713093553628</v>
+        <v>0.03767974226473628</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2892152477.259987</v>
+        <v>2825076567.951114</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09926653853571452</v>
+        <v>0.07825377513921607</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03924164852101803</v>
+        <v>0.04611344930213065</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3224684161.022299</v>
+        <v>4767101406.089176</v>
       </c>
       <c r="F17" t="n">
-        <v>0.170255690152292</v>
+        <v>0.1213449937840436</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05202720397775442</v>
+        <v>0.0507811563632805</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2568099055.809078</v>
+        <v>3389741482.254625</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1277698584804884</v>
+        <v>0.1611796975828622</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02172887690314898</v>
+        <v>0.03396560048871544</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1306502969.604209</v>
+        <v>848684612.4041126</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1721989826535229</v>
+        <v>0.1815979736609959</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02198133160750367</v>
+        <v>0.02148508676672007</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2564898053.586151</v>
+        <v>1954556200.551867</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1032568864263948</v>
+        <v>0.1423083562606325</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02589746309972855</v>
+        <v>0.0260032516767613</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2514535927.052709</v>
+        <v>1764980196.913108</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09321044801236955</v>
+        <v>0.09650089820197144</v>
       </c>
       <c r="G21" t="n">
-        <v>0.037114296110067</v>
+        <v>0.03612254101271741</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2652184392.098664</v>
+        <v>3532221296.732886</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1189996118828371</v>
+        <v>0.1356729223805971</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04914119607726147</v>
+        <v>0.04010756617806919</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1202735210.778531</v>
+        <v>1152157388.072977</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1791053524179333</v>
+        <v>0.1139226982175807</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04154410323120507</v>
+        <v>0.04603650861567628</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2894364917.013215</v>
+        <v>4023966305.246822</v>
       </c>
       <c r="F24" t="n">
-        <v>0.105933993302563</v>
+        <v>0.1483525274778596</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0344640582569907</v>
+        <v>0.02285259386326564</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1457204118.488178</v>
+        <v>1012307741.339917</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1201893125439847</v>
+        <v>0.116839994676561</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02186950978569883</v>
+        <v>0.02516300431640045</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1053689397.431493</v>
+        <v>1314090699.355039</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1140648939523797</v>
+        <v>0.1045394783521005</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0390443602545431</v>
+        <v>0.03105679740868385</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2892564582.665932</v>
+        <v>3449601249.116629</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1352846663979372</v>
+        <v>0.1180412733868147</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02200766527718796</v>
+        <v>0.02254948720050624</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2639743786.043797</v>
+        <v>2447445165.649245</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1224731388658532</v>
+        <v>0.1286409970433621</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04191929016104861</v>
+        <v>0.03060488738033492</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3711366476.947186</v>
+        <v>5510020540.067598</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1392328610811664</v>
+        <v>0.09718681643588095</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03096320839161113</v>
+        <v>0.03827420070938535</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1850393262.55394</v>
+        <v>1559688128.075905</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1081997371046329</v>
+        <v>0.09919666122631442</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0393604508614143</v>
+        <v>0.04022478686023836</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1049326865.882286</v>
+        <v>997626855.7251606</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09448538893495008</v>
+        <v>0.1032249808787396</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03255613891632022</v>
+        <v>0.03840455775134698</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1476914732.234424</v>
+        <v>1784699043.169115</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09114659958233823</v>
+        <v>0.1077289543433389</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03864129266430483</v>
+        <v>0.0235865907823122</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2089347769.752944</v>
+        <v>1881966941.049323</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1498531932728333</v>
+        <v>0.1741231271396803</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03749012950218629</v>
+        <v>0.03921786411512544</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>977760283.4010259</v>
+        <v>1569214065.29628</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09269505521723137</v>
+        <v>0.09552935427754058</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02379199333615306</v>
+        <v>0.02663417483616037</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>926969645.226861</v>
+        <v>1269869748.388531</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09385661059499466</v>
+        <v>0.1093893844819436</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03288220132436682</v>
+        <v>0.03056457201378332</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2359155735.618081</v>
+        <v>2631762108.22929</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1103115820768874</v>
+        <v>0.1606305964985514</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02398453473187206</v>
+        <v>0.02377329303046895</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1834067922.942668</v>
+        <v>2912588826.936817</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09977239363183965</v>
+        <v>0.09054393018773896</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03278537675436057</v>
+        <v>0.03470810260875436</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1481012980.577627</v>
+        <v>1907365033.613649</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08482280156995832</v>
+        <v>0.1074661995423958</v>
       </c>
       <c r="G38" t="n">
-        <v>0.036956019988508</v>
+        <v>0.03222404240512109</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1455839456.224315</v>
+        <v>1695772690.578948</v>
       </c>
       <c r="F39" t="n">
-        <v>0.192523558399946</v>
+        <v>0.1728111417503205</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03136451462252265</v>
+        <v>0.02761855644314396</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1147025571.246284</v>
+        <v>1471586018.733338</v>
       </c>
       <c r="F40" t="n">
-        <v>0.109988514304746</v>
+        <v>0.1497497563505132</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03663198299447284</v>
+        <v>0.05645060492601288</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1836367246.653737</v>
+        <v>2553144575.820973</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1295013164867292</v>
+        <v>0.1521296228343881</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03851484416539769</v>
+        <v>0.04003253660167323</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2849227365.269285</v>
+        <v>3457346885.510297</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1175478868884677</v>
+        <v>0.0769215240276445</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02971804491660754</v>
+        <v>0.04024532655993004</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2850516079.357111</v>
+        <v>2873870879.240244</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2004251439003163</v>
+        <v>0.132154752258739</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0219402318050656</v>
+        <v>0.01712437833107974</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1925033938.063107</v>
+        <v>2165161161.099955</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06582112033962453</v>
+        <v>0.08775826554057273</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0358665109454901</v>
+        <v>0.02970112782090023</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2499817608.539811</v>
+        <v>2407483720.819189</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1490044316257094</v>
+        <v>0.1908310226449277</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05265878533390213</v>
+        <v>0.0557783592884411</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4475721201.724883</v>
+        <v>4901538520.238761</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1510580949517275</v>
+        <v>0.1312057598333756</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05713745317826903</v>
+        <v>0.04899793194499519</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4753162437.574621</v>
+        <v>3592295756.239943</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1666933127688892</v>
+        <v>0.1360310117441586</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05720076992296391</v>
+        <v>0.04000957847748604</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4635949369.206924</v>
+        <v>2993521912.556008</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08598240028198151</v>
+        <v>0.07893070179706736</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02568030729005534</v>
+        <v>0.03121320565760137</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1491051383.641471</v>
+        <v>1708427606.175863</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1846527090624046</v>
+        <v>0.1765148166820087</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04416155038039743</v>
+        <v>0.03278330281757801</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3228071435.272128</v>
+        <v>3514436116.980059</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1552811666051755</v>
+        <v>0.1763919793747647</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03519312074271211</v>
+        <v>0.04354161276760036</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1298312328.979708</v>
+        <v>1388092846.067724</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1448216479342384</v>
+        <v>0.1941138822341883</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04692466251278359</v>
+        <v>0.04337362632573618</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4014936698.063434</v>
+        <v>5308712645.475436</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1038095038275928</v>
+        <v>0.08683076569346294</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04810153422789878</v>
+        <v>0.03769146178310716</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2843712471.443052</v>
+        <v>3759272394.833924</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1817693060259061</v>
+        <v>0.148564386978536</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02436665184141266</v>
+        <v>0.02827972379318007</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4717021539.970815</v>
+        <v>3408238710.264106</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1679090492529021</v>
+        <v>0.1356470036568631</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04745257132287859</v>
+        <v>0.04698675873866934</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4325171280.326568</v>
+        <v>4354586209.998013</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1522640306088892</v>
+        <v>0.1534255363228909</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02246717505506205</v>
+        <v>0.02336538915327185</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1701122299.071999</v>
+        <v>1392105204.619442</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1142105366597391</v>
+        <v>0.1178661422305229</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05725363086739116</v>
+        <v>0.04217486051076872</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4568957669.614586</v>
+        <v>2973258184.110938</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1692709237160255</v>
+        <v>0.1795692789106206</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01777368184948695</v>
+        <v>0.02702634351036317</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1408928883.332613</v>
+        <v>1444843085.165415</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1441279912551498</v>
+        <v>0.1342159956796806</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03524125435572686</v>
+        <v>0.03910581255587039</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4530759256.152872</v>
+        <v>4323149375.114039</v>
       </c>
       <c r="F59" t="n">
-        <v>0.105343132882416</v>
+        <v>0.1184768070135545</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03711582278096413</v>
+        <v>0.03107950484043744</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3283000778.969289</v>
+        <v>3223265673.034373</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1793338428966109</v>
+        <v>0.1354271663283958</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02512506416895176</v>
+        <v>0.02585109230690564</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2513408702.859296</v>
+        <v>3105538695.604385</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1794891778825476</v>
+        <v>0.1651741876217528</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02381505795037112</v>
+        <v>0.03217181200495239</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1552260933.786468</v>
+        <v>1668048385.035748</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1797544186504777</v>
+        <v>0.1205536868757127</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04102667904484976</v>
+        <v>0.04225050637891976</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4897927464.809731</v>
+        <v>3668368177.001668</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08698668763447268</v>
+        <v>0.09188362295445927</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02972602853982402</v>
+        <v>0.03629825785167849</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4925678956.5371</v>
+        <v>3401054654.964257</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1428400201210616</v>
+        <v>0.1833079864711914</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03081909717099405</v>
+        <v>0.02244691198802934</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4134620780.132575</v>
+        <v>5011718994.223235</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1736567567511429</v>
+        <v>0.126903758045758</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02062859972507185</v>
+        <v>0.02177925876107488</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4409655764.631055</v>
+        <v>4295184625.325547</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1555512272017077</v>
+        <v>0.1017018205652511</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04899840893221742</v>
+        <v>0.03726857424987355</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2721738803.385958</v>
+        <v>3432818465.047618</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06861522460577109</v>
+        <v>0.06544716660625696</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03181876873566573</v>
+        <v>0.03440285446569987</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4329613050.368094</v>
+        <v>5854896535.047188</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1302575937286593</v>
+        <v>0.09644867371160223</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03691526628474052</v>
+        <v>0.03602481514406503</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1822520928.673836</v>
+        <v>2406044192.247164</v>
       </c>
       <c r="F69" t="n">
-        <v>0.132016830986726</v>
+        <v>0.1807521351018374</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06004433699586576</v>
+        <v>0.05896130851133909</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2469443171.927549</v>
+        <v>3339991767.487246</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06355844220572972</v>
+        <v>0.08970192937131989</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04156326290527927</v>
+        <v>0.03446684439563271</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4115242951.945259</v>
+        <v>4183874758.687007</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1642034180789202</v>
+        <v>0.1152133951206991</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03257761486641852</v>
+        <v>0.02310777966005182</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1824582278.273092</v>
+        <v>1441161131.748803</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09145297302481176</v>
+        <v>0.07623338010760772</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03280571063223549</v>
+        <v>0.04704317163814405</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2734630413.786466</v>
+        <v>2622536513.96288</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09171384718058631</v>
+        <v>0.08067304038415946</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04873795338044019</v>
+        <v>0.03689526904188918</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3611927527.647758</v>
+        <v>2777007647.825518</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1524219267892647</v>
+        <v>0.1186180336540311</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0312036964128562</v>
+        <v>0.02456407893269104</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1842633424.419645</v>
+        <v>1543001291.57568</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1475218606014606</v>
+        <v>0.1630895762144235</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0268612167835608</v>
+        <v>0.03096065831468403</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3994889189.254143</v>
+        <v>3918682825.64156</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07979470009256036</v>
+        <v>0.1159723036573343</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03056076127118722</v>
+        <v>0.02482029035360447</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1707741355.065085</v>
+        <v>1731218060.946989</v>
       </c>
       <c r="F77" t="n">
-        <v>0.118715768945435</v>
+        <v>0.1453733859633826</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0294527923222799</v>
+        <v>0.02448420991569286</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4477888856.6285</v>
+        <v>4589709387.98401</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1350288004555903</v>
+        <v>0.1132799200090928</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04467013360713047</v>
+        <v>0.05346239743719346</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1604342460.240524</v>
+        <v>1880341502.296857</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1333657461652197</v>
+        <v>0.1522890237024038</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03356743367246519</v>
+        <v>0.02501901069287647</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5150062369.466456</v>
+        <v>4812580024.620345</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07309800790577703</v>
+        <v>0.07968905603579945</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03651713156342131</v>
+        <v>0.03816908736343815</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3240539361.540455</v>
+        <v>4288656362.526553</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08525229659262255</v>
+        <v>0.1153477886174042</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03244096826045713</v>
+        <v>0.02190383778899764</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5120528805.60313</v>
+        <v>4799390208.238445</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1654585158605376</v>
+        <v>0.1758368100415891</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02347767976239437</v>
+        <v>0.02518977161626324</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2047817505.332703</v>
+        <v>2015579802.313978</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1244312486854611</v>
+        <v>0.1074654705686143</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02736544518869976</v>
+        <v>0.0287283431330897</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1813563756.817362</v>
+        <v>2469025389.52058</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09636044458449654</v>
+        <v>0.09571606987771768</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03384627203434922</v>
+        <v>0.05141181968122591</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2917800808.416821</v>
+        <v>2857015151.137363</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1739973253150406</v>
+        <v>0.142901717651789</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03601429385058132</v>
+        <v>0.05297712109966341</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2501115902.276646</v>
+        <v>1938240607.300881</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1292328368810478</v>
+        <v>0.1406135313938895</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01864178362702381</v>
+        <v>0.0197547372060277</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1498619464.513812</v>
+        <v>1455094993.233863</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1503607432560029</v>
+        <v>0.1554155900687381</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02889464663977199</v>
+        <v>0.03762123013880512</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3682325645.020723</v>
+        <v>2348187332.355933</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1255774876886481</v>
+        <v>0.1198850402047859</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02434710047694346</v>
+        <v>0.03764494177860175</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3430998607.137894</v>
+        <v>2340265576.652945</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1407369792901641</v>
+        <v>0.1361685061751087</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03320673399559078</v>
+        <v>0.04134417911894157</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2016531557.799697</v>
+        <v>1549499490.883579</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1267547503512934</v>
+        <v>0.1107128338795014</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03760264853328491</v>
+        <v>0.03541360885164104</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2038214744.080879</v>
+        <v>1568198714.459888</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1421215860523243</v>
+        <v>0.1189245237056494</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03966755008334704</v>
+        <v>0.04306770558174256</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2262184636.954164</v>
+        <v>2126856374.143185</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1003957031310423</v>
+        <v>0.1100333213592319</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03386357501142736</v>
+        <v>0.03251936021983816</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3303266531.162062</v>
+        <v>3977890920.893607</v>
       </c>
       <c r="F93" t="n">
-        <v>0.112869212195659</v>
+        <v>0.09413652723679972</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03531485516825372</v>
+        <v>0.03570977475770985</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2478026116.936687</v>
+        <v>1975317827.407312</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1441256893778713</v>
+        <v>0.1555255233128389</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02628696407295996</v>
+        <v>0.03468452997949859</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2579061632.873919</v>
+        <v>2949859449.773361</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1368251727609023</v>
+        <v>0.0985351128528094</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03870983106527199</v>
+        <v>0.04791833380616115</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1790953108.513737</v>
+        <v>2368357393.241017</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1283310828326716</v>
+        <v>0.1379035107790328</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02912786604569171</v>
+        <v>0.03548719681029504</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3467399765.850166</v>
+        <v>3631764601.760107</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1236805843992552</v>
+        <v>0.1448360502799642</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0215260743430079</v>
+        <v>0.02677594942015753</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2967759024.123869</v>
+        <v>2565705649.719559</v>
       </c>
       <c r="F98" t="n">
-        <v>0.12378503585623</v>
+        <v>0.119829585679537</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02035208816061952</v>
+        <v>0.02437696966089769</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2990217002.754505</v>
+        <v>2599694639.057578</v>
       </c>
       <c r="F99" t="n">
-        <v>0.147244925658086</v>
+        <v>0.1021098634601374</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02266582000494642</v>
+        <v>0.0327965787418673</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4473537186.445847</v>
+        <v>4551058626.014466</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1760774428592384</v>
+        <v>0.1244112573794884</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02800839455738206</v>
+        <v>0.02237032683331422</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3003295775.99659</v>
+        <v>2305353115.51469</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1805211819608732</v>
+        <v>0.1830051211547027</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05765280635381272</v>
+        <v>0.03632762475485757</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_88.xlsx
+++ b/output/fit_clients/fit_round_88.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1733553556.445923</v>
+        <v>1944845884.359303</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1034372445648602</v>
+        <v>0.1093337241603866</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02790084419495007</v>
+        <v>0.02752660213172155</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2181216645.916838</v>
+        <v>1770876168.215703</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1443751574292164</v>
+        <v>0.152233784621135</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0312091228682164</v>
+        <v>0.04400058907229463</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5111973406.327254</v>
+        <v>5206507402.612568</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1462596231923552</v>
+        <v>0.1274992476076803</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03562113599473546</v>
+        <v>0.03648718905766345</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>57</v>
+      </c>
+      <c r="J4" t="n">
+        <v>87</v>
+      </c>
+      <c r="K4" t="n">
+        <v>173.7739478196733</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2781402253.694087</v>
+        <v>2645506496.704937</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09138807004413062</v>
+        <v>0.1054227883302317</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03290863636784781</v>
+        <v>0.04843018148119613</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>38</v>
+      </c>
+      <c r="J5" t="n">
+        <v>86</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2181165136.126223</v>
+        <v>2660636411.448757</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09820787338612814</v>
+        <v>0.1405435005171895</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03419172425470527</v>
+        <v>0.04717909383554719</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2445739476.951799</v>
+        <v>2877392915.831176</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06323854210512922</v>
+        <v>0.08859803410379498</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04463879276816705</v>
+        <v>0.0378840417002587</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2966097669.528996</v>
+        <v>3394576227.037518</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1929114698440957</v>
+        <v>0.1679098377185189</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02136287101743481</v>
+        <v>0.0282188677601292</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>23</v>
+      </c>
+      <c r="J8" t="n">
+        <v>85</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1892838824.654786</v>
+        <v>2239172566.269114</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1836453839245592</v>
+        <v>0.1707252503742038</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02779540513107889</v>
+        <v>0.02419973079755518</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3597940043.664702</v>
+        <v>3959516264.452324</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2017056370560298</v>
+        <v>0.2087177368473326</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0512777136441564</v>
+        <v>0.0482349133305345</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>82</v>
+      </c>
+      <c r="J10" t="n">
+        <v>88</v>
+      </c>
+      <c r="K10" t="n">
+        <v>188.6670193032982</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4136374779.141848</v>
+        <v>4166699804.215001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1197731913335449</v>
+        <v>0.1499857168809601</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04569673175027318</v>
+        <v>0.0347970052348291</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>36</v>
+      </c>
+      <c r="J11" t="n">
+        <v>88</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2495523987.335832</v>
+        <v>2838230376.030535</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1330801381902789</v>
+        <v>0.1905957869144513</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05081959046022586</v>
+        <v>0.03344166056179714</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +890,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5263565852.329364</v>
+        <v>4543286459.620193</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07732950537434988</v>
+        <v>0.07517604698848734</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02637711812486819</v>
+        <v>0.02662195878358152</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>44</v>
+      </c>
+      <c r="J13" t="n">
+        <v>88</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3067611690.365489</v>
+        <v>2393018177.663859</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1890474101937105</v>
+        <v>0.1264956814246775</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04119982132261438</v>
+        <v>0.03124334253953724</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>79</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1761273898.163755</v>
+        <v>1810024357.895566</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08651254209902155</v>
+        <v>0.08815956065016622</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03767974226473628</v>
+        <v>0.03930318585012816</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2825076567.951114</v>
+        <v>1807479062.267318</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07825377513921607</v>
+        <v>0.1133418612042088</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04611344930213065</v>
+        <v>0.04056464369647046</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4767101406.089176</v>
+        <v>4001772922.469687</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1213449937840436</v>
+        <v>0.1365189277939229</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0507811563632805</v>
+        <v>0.04465093379276701</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>42</v>
+      </c>
+      <c r="J17" t="n">
+        <v>88</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3389741482.254625</v>
+        <v>3669613920.68936</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1611796975828622</v>
+        <v>0.1422180611773994</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03396560048871544</v>
+        <v>0.03250281638608317</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>23</v>
+      </c>
+      <c r="J18" t="n">
+        <v>88</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1100,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>848684612.4041126</v>
+        <v>1229673917.104481</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1815979736609959</v>
+        <v>0.1509157203020458</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02148508676672007</v>
+        <v>0.0198023659216157</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1954556200.551867</v>
+        <v>2324548928.667143</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1423083562606325</v>
+        <v>0.1337766716354846</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0260032516767613</v>
+        <v>0.02412794389113068</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1764980196.913108</v>
+        <v>1975248565.200608</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09650089820197144</v>
+        <v>0.07493654716585871</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03612254101271741</v>
+        <v>0.04261503314972694</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1199,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3532221296.732886</v>
+        <v>2662616194.748755</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1356729223805971</v>
+        <v>0.1165340190982086</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04010756617806919</v>
+        <v>0.03538203934316429</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>87</v>
+      </c>
+      <c r="K22" t="n">
+        <v>69.87699253689092</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1152157388.072977</v>
+        <v>1510871643.061459</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1139226982175807</v>
+        <v>0.1807280683526051</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04603650861567628</v>
+        <v>0.03772565759683186</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4023966305.246822</v>
+        <v>3329423850.749387</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1483525274778596</v>
+        <v>0.1210092079646838</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02285259386326564</v>
+        <v>0.02861221541523317</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27</v>
+      </c>
+      <c r="J24" t="n">
+        <v>82</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1012307741.339917</v>
+        <v>1330100329.76544</v>
       </c>
       <c r="F25" t="n">
-        <v>0.116839994676561</v>
+        <v>0.1208570730925272</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02516300431640045</v>
+        <v>0.02564291956816923</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1314090699.355039</v>
+        <v>1444393748.518057</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1045394783521005</v>
+        <v>0.1124953092293526</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03105679740868385</v>
+        <v>0.02384268206729116</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1382,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3449601249.116629</v>
+        <v>4558090427.875333</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1180412733868147</v>
+        <v>0.1523733266288409</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02254948720050624</v>
+        <v>0.02113552921763874</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>35</v>
+      </c>
+      <c r="J27" t="n">
+        <v>87</v>
+      </c>
+      <c r="K27" t="n">
+        <v>145.3129282290696</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2447445165.649245</v>
+        <v>3283401572.923697</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1286409970433621</v>
+        <v>0.1213862012722873</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03060488738033492</v>
+        <v>0.04860721607720269</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>22</v>
+      </c>
+      <c r="J28" t="n">
+        <v>84</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5510020540.067598</v>
+        <v>5705391090.406518</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09718681643588095</v>
+        <v>0.1479102842777463</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03827420070938535</v>
+        <v>0.03040401997334962</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>82</v>
+      </c>
+      <c r="J29" t="n">
+        <v>88</v>
+      </c>
+      <c r="K29" t="n">
+        <v>203.8086478311246</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1559688128.075905</v>
+        <v>2295124341.933204</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09919666122631442</v>
+        <v>0.1067918473542125</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04022478686023836</v>
+        <v>0.02653975276376743</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>997626855.7251606</v>
+        <v>1420929071.856969</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1032249808787396</v>
+        <v>0.08447308755373685</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03840455775134698</v>
+        <v>0.0456443368935387</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1784699043.169115</v>
+        <v>1796853339.346555</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1077289543433389</v>
+        <v>0.1098452180638737</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0235865907823122</v>
+        <v>0.03235604718903766</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1881966941.049323</v>
+        <v>3008548138.245251</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1741231271396803</v>
+        <v>0.1834153398413768</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03921786411512544</v>
+        <v>0.04459377098666725</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1569214065.29628</v>
+        <v>1572071193.460268</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09552935427754058</v>
+        <v>0.08220830430683199</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02663417483616037</v>
+        <v>0.02637732987330147</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1269869748.388531</v>
+        <v>1289568486.704127</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1093893844819436</v>
+        <v>0.1128093703578879</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03056457201378332</v>
+        <v>0.0414169884333645</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2631762108.22929</v>
+        <v>3248348891.964903</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1606305964985514</v>
+        <v>0.1481250648180192</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02377329303046895</v>
+        <v>0.02618509401014956</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2912588826.936817</v>
+        <v>1788179096.146423</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09054393018773896</v>
+        <v>0.1026475755384566</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03470810260875436</v>
+        <v>0.03297613363532063</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1907365033.613649</v>
+        <v>1823979076.798241</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1074661995423958</v>
+        <v>0.08892108573129975</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03222404240512109</v>
+        <v>0.03270816398442011</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1695772690.578948</v>
+        <v>1696219661.202092</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1728111417503205</v>
+        <v>0.1935531831025425</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02761855644314396</v>
+        <v>0.02202333513387104</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1471586018.733338</v>
+        <v>1781416281.746588</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1497497563505132</v>
+        <v>0.1208589623379206</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05645060492601288</v>
+        <v>0.05625948193404573</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2553144575.820973</v>
+        <v>2342234343.051072</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1521296228343881</v>
+        <v>0.1099241661108651</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04003253660167323</v>
+        <v>0.02956998162752148</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3457346885.510297</v>
+        <v>3782319335.957987</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0769215240276445</v>
+        <v>0.07857060685879341</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04024532655993004</v>
+        <v>0.03521761504267459</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>33</v>
+      </c>
+      <c r="J42" t="n">
+        <v>88</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2873870879.240244</v>
+        <v>1975950844.770152</v>
       </c>
       <c r="F43" t="n">
-        <v>0.132154752258739</v>
+        <v>0.1562374742397182</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01712437833107974</v>
+        <v>0.02080187624457145</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2165161161.099955</v>
+        <v>1441645595.20517</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08775826554057273</v>
+        <v>0.08415347473218351</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02970112782090023</v>
+        <v>0.02540021227960697</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2407483720.819189</v>
+        <v>2187001667.280729</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1908310226449277</v>
+        <v>0.1296160154674213</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0557783592884411</v>
+        <v>0.05104103491265704</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2051,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4901538520.238761</v>
+        <v>3657108585.853771</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1312057598333756</v>
+        <v>0.1432834624861767</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04899793194499519</v>
+        <v>0.04014413035881802</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>50</v>
+      </c>
+      <c r="J46" t="n">
+        <v>88</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3592295756.239943</v>
+        <v>4692935119.989368</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1360310117441586</v>
+        <v>0.1697583797759954</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04000957847748604</v>
+        <v>0.03763215395798435</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>40</v>
+      </c>
+      <c r="J47" t="n">
+        <v>87</v>
+      </c>
+      <c r="K47" t="n">
+        <v>145.0250066625141</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2123,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2993521912.556008</v>
+        <v>3909799711.425957</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07893070179706736</v>
+        <v>0.1032529470568747</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03121320565760137</v>
+        <v>0.03215654734598114</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>33</v>
+      </c>
+      <c r="J48" t="n">
+        <v>88</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1708427606.175863</v>
+        <v>1380366266.964731</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1765148166820087</v>
+        <v>0.1602373382750462</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03278330281757801</v>
+        <v>0.03068469834560252</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2187,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3514436116.980059</v>
+        <v>3033620538.889112</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1763919793747647</v>
+        <v>0.1636077001358828</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04354161276760036</v>
+        <v>0.03572007694759543</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>31</v>
+      </c>
+      <c r="J50" t="n">
+        <v>87</v>
+      </c>
+      <c r="K50" t="n">
+        <v>100.2883761158439</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1388092846.067724</v>
+        <v>1318848067.186552</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1941138822341883</v>
+        <v>0.1379920644219216</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04337362632573618</v>
+        <v>0.052170944232652</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2265,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5308712645.475436</v>
+        <v>4734098540.177624</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08683076569346294</v>
+        <v>0.1232529304962054</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03769146178310716</v>
+        <v>0.04660865006274019</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>67</v>
+      </c>
+      <c r="J52" t="n">
+        <v>88</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3759272394.833924</v>
+        <v>3457906993.154358</v>
       </c>
       <c r="F53" t="n">
-        <v>0.148564386978536</v>
+        <v>0.152548914102454</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02827972379318007</v>
+        <v>0.03154992863447895</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" t="n">
+        <v>85</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3408238710.264106</v>
+        <v>4131900372.622155</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1356470036568631</v>
+        <v>0.1214216316013741</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04698675873866934</v>
+        <v>0.04334401375734685</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>39</v>
+      </c>
+      <c r="J54" t="n">
+        <v>88</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4354586209.998013</v>
+        <v>3210450078.134516</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1534255363228909</v>
+        <v>0.159210177883791</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02336538915327185</v>
+        <v>0.02730815339759625</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>40</v>
+      </c>
+      <c r="J55" t="n">
+        <v>87</v>
+      </c>
+      <c r="K55" t="n">
+        <v>100.6653307219667</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1392105204.619442</v>
+        <v>1160491800.724467</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1178661422305229</v>
+        <v>0.1203499980601114</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04217486051076872</v>
+        <v>0.03614469128085307</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2973258184.110938</v>
+        <v>3990120812.853095</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1795692789106206</v>
+        <v>0.1465927905032415</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02702634351036317</v>
+        <v>0.02085175059965202</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>33</v>
+      </c>
+      <c r="J57" t="n">
+        <v>87</v>
+      </c>
+      <c r="K57" t="n">
+        <v>166.070846773409</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1444843085.165415</v>
+        <v>1454130709.694579</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1342159956796806</v>
+        <v>0.1759949037145543</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03910581255587039</v>
+        <v>0.03163840682829509</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4323149375.114039</v>
+        <v>4218745214.45364</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1184768070135545</v>
+        <v>0.1134109104886018</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03107950484043744</v>
+        <v>0.042082751477412</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>43</v>
+      </c>
+      <c r="J59" t="n">
+        <v>87</v>
+      </c>
+      <c r="K59" t="n">
+        <v>156.2930747983634</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3223265673.034373</v>
+        <v>3510069828.514446</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1354271663283958</v>
+        <v>0.1311339402509452</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02585109230690564</v>
+        <v>0.02473850466774984</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>12</v>
+      </c>
+      <c r="J60" t="n">
+        <v>87</v>
+      </c>
+      <c r="K60" t="n">
+        <v>130.1740615167385</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3105538695.604385</v>
+        <v>2397170605.865422</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1651741876217528</v>
+        <v>0.1738682652039826</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03217181200495239</v>
+        <v>0.0235815721053441</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1668048385.035748</v>
+        <v>1412753552.853737</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1205536868757127</v>
+        <v>0.124478959994495</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04225050637891976</v>
+        <v>0.03401049127226656</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2658,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3668368177.001668</v>
+        <v>4436571105.315743</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09188362295445927</v>
+        <v>0.09190380806597601</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03629825785167849</v>
+        <v>0.02890729452927893</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>43</v>
+      </c>
+      <c r="J63" t="n">
+        <v>88</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3401054654.964257</v>
+        <v>3952927043.852002</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1833079864711914</v>
+        <v>0.1472141253670419</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02244691198802934</v>
+        <v>0.02684289133641402</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>43</v>
+      </c>
+      <c r="J64" t="n">
+        <v>88</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5011718994.223235</v>
+        <v>4314810373.050471</v>
       </c>
       <c r="F65" t="n">
-        <v>0.126903758045758</v>
+        <v>0.1731013420957289</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02177925876107488</v>
+        <v>0.02930079100680793</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>70</v>
+      </c>
+      <c r="J65" t="n">
+        <v>88</v>
+      </c>
+      <c r="K65" t="n">
+        <v>176.7411514744238</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4295184625.325547</v>
+        <v>3621480811.4644</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1017018205652511</v>
+        <v>0.1465671652635578</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03726857424987355</v>
+        <v>0.04865431158002066</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>43</v>
+      </c>
+      <c r="J66" t="n">
+        <v>88</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3432818465.047618</v>
+        <v>3499401900.235846</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06544716660625696</v>
+        <v>0.08085947546405459</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03440285446569987</v>
+        <v>0.05022115952091507</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5854896535.047188</v>
+        <v>5849345348.776703</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09644867371160223</v>
+        <v>0.1379355240802224</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03602481514406503</v>
+        <v>0.04173274897747061</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>44</v>
+      </c>
+      <c r="J68" t="n">
+        <v>87</v>
+      </c>
+      <c r="K68" t="n">
+        <v>163.5607556721412</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2406044192.247164</v>
+        <v>1857458377.857756</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1807521351018374</v>
+        <v>0.1431408330237893</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05896130851133909</v>
+        <v>0.04117962590708654</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3339991767.487246</v>
+        <v>3427735008.707493</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08970192937131989</v>
+        <v>0.09321381342259952</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03446684439563271</v>
+        <v>0.04184360850927901</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>81</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4183874758.687007</v>
+        <v>3796963739.540537</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1152133951206991</v>
+        <v>0.1405726610967506</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02310777966005182</v>
+        <v>0.02944193266860254</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>73</v>
+      </c>
+      <c r="J71" t="n">
+        <v>87</v>
+      </c>
+      <c r="K71" t="n">
+        <v>162.0685633690748</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1441161131.748803</v>
+        <v>2100247317.270273</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07623338010760772</v>
+        <v>0.1000939985569363</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04704317163814405</v>
+        <v>0.0396519763181731</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2622536513.96288</v>
+        <v>2543848776.601772</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08067304038415946</v>
+        <v>0.09093867047739354</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03689526904188918</v>
+        <v>0.05098261395524554</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2777007647.825518</v>
+        <v>2793419730.28481</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1186180336540311</v>
+        <v>0.1366006787017094</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02456407893269104</v>
+        <v>0.02710987062231568</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>27</v>
+      </c>
+      <c r="J74" t="n">
+        <v>86</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1543001291.57568</v>
+        <v>1785781792.962287</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1630895762144235</v>
+        <v>0.1594812345389203</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03096065831468403</v>
+        <v>0.02367305876931938</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3119,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3918682825.64156</v>
+        <v>3983167321.825779</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1159723036573343</v>
+        <v>0.1065518363192882</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02482029035360447</v>
+        <v>0.0309231471542333</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>40</v>
+      </c>
+      <c r="J76" t="n">
+        <v>88</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1731218060.946989</v>
+        <v>1456517006.242314</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1453733859633826</v>
+        <v>0.1373145117941496</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02448420991569286</v>
+        <v>0.0313129939535692</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3189,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4589709387.98401</v>
+        <v>3954402376.038339</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1132799200090928</v>
+        <v>0.1030085162710451</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05346239743719346</v>
+        <v>0.03999946656120007</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>42</v>
+      </c>
+      <c r="J78" t="n">
+        <v>88</v>
+      </c>
+      <c r="K78" t="n">
+        <v>179.1055307019673</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1880341502.296857</v>
+        <v>1529967378.160914</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1522890237024038</v>
+        <v>0.1183516703384327</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02501901069287647</v>
+        <v>0.03978025343729402</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4812580024.620345</v>
+        <v>3917763213.089517</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07968905603579945</v>
+        <v>0.06822179511323505</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03816908736343815</v>
+        <v>0.03574544146643061</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>42</v>
+      </c>
+      <c r="J80" t="n">
+        <v>87</v>
+      </c>
+      <c r="K80" t="n">
+        <v>128.2669591606163</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3298,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4288656362.526553</v>
+        <v>4547553904.92964</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1153477886174042</v>
+        <v>0.1273687974342233</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02190383778899764</v>
+        <v>0.03193303172583396</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>40</v>
+      </c>
+      <c r="J81" t="n">
+        <v>87</v>
+      </c>
+      <c r="K81" t="n">
+        <v>142.4275297608919</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4799390208.238445</v>
+        <v>4586892071.036394</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1758368100415891</v>
+        <v>0.133801522771664</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02518977161626324</v>
+        <v>0.01933920525509203</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>56</v>
+      </c>
+      <c r="J82" t="n">
+        <v>88</v>
+      </c>
+      <c r="K82" t="n">
+        <v>182.3984512719326</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2015579802.313978</v>
+        <v>1906553653.534206</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1074654705686143</v>
+        <v>0.1387245625500209</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0287283431330897</v>
+        <v>0.03071235412190157</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2469025389.52058</v>
+        <v>2363267216.890922</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09571606987771768</v>
+        <v>0.1053299382413411</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05141181968122591</v>
+        <v>0.03722745047653052</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2857015151.137363</v>
+        <v>3556209489.652629</v>
       </c>
       <c r="F85" t="n">
-        <v>0.142901717651789</v>
+        <v>0.1700949066683824</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05297712109966341</v>
+        <v>0.05138356785699149</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J85" t="n">
+        <v>88</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1938240607.300881</v>
+        <v>1889334196.56686</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1406135313938895</v>
+        <v>0.1710865577613392</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0197547372060277</v>
+        <v>0.02326831428878144</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1455094993.233863</v>
+        <v>963818211.3109882</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1554155900687381</v>
+        <v>0.1375460445037685</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03762123013880512</v>
+        <v>0.03760045915712521</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2348187332.355933</v>
+        <v>2598060315.621332</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1198850402047859</v>
+        <v>0.1229252162486662</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03764494177860175</v>
+        <v>0.03541181686629801</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>13</v>
+      </c>
+      <c r="J88" t="n">
+        <v>86</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2340265576.652945</v>
+        <v>3116731046.024081</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1361685061751087</v>
+        <v>0.1060931538597636</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04134417911894157</v>
+        <v>0.03516020119069051</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1549499490.883579</v>
+        <v>1995619222.619301</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1107128338795014</v>
+        <v>0.1333263923083656</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03541360885164104</v>
+        <v>0.04315173871951183</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1568198714.459888</v>
+        <v>1558836698.174028</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1189245237056494</v>
+        <v>0.1334685550980472</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04306770558174256</v>
+        <v>0.04316417419393136</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2126856374.143185</v>
+        <v>2058218076.765481</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1100333213592319</v>
+        <v>0.1002767611620586</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03251936021983816</v>
+        <v>0.04464246898510552</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3977890920.893607</v>
+        <v>3671429286.073694</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09413652723679972</v>
+        <v>0.1105561399679605</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03570977475770985</v>
+        <v>0.05408047241323268</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>40</v>
+      </c>
+      <c r="J93" t="n">
+        <v>87</v>
+      </c>
+      <c r="K93" t="n">
+        <v>135.1337749122637</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1975317827.407312</v>
+        <v>2029159259.42069</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1555255233128389</v>
+        <v>0.1068545590663288</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03468452997949859</v>
+        <v>0.02945531119431629</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2949859449.773361</v>
+        <v>3210703139.707926</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0985351128528094</v>
+        <v>0.09210759204466493</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04791833380616115</v>
+        <v>0.04558986676220859</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2368357393.241017</v>
+        <v>1501841230.752708</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1379035107790328</v>
+        <v>0.1275422471059759</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03548719681029504</v>
+        <v>0.03911255534902306</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3631764601.760107</v>
+        <v>5377890716.151169</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1448360502799642</v>
+        <v>0.1614737251504396</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02677594942015753</v>
+        <v>0.02205295170974985</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>42</v>
+      </c>
+      <c r="J97" t="n">
+        <v>87</v>
+      </c>
+      <c r="K97" t="n">
+        <v>169.5738752499659</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2565705649.719559</v>
+        <v>2617640636.458241</v>
       </c>
       <c r="F98" t="n">
-        <v>0.119829585679537</v>
+        <v>0.09706556629213717</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02437696966089769</v>
+        <v>0.02097414419113938</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>19</v>
+      </c>
+      <c r="J98" t="n">
+        <v>86</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2599694639.057578</v>
+        <v>2164647323.232701</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1021098634601374</v>
+        <v>0.1205808381092823</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0327965787418673</v>
+        <v>0.02159840323431633</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4551058626.014466</v>
+        <v>4775457696.662274</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1244112573794884</v>
+        <v>0.1538143464502258</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02237032683331422</v>
+        <v>0.01853019841577367</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>35</v>
+      </c>
+      <c r="J100" t="n">
+        <v>88</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2305353115.51469</v>
+        <v>3238702069.15648</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1830051211547027</v>
+        <v>0.1895979277897498</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03632762475485757</v>
+        <v>0.05736680988038759</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>67</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
